--- a/EST_Assignments_colored.xlsx
+++ b/EST_Assignments_colored.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tamucs-my.sharepoint.com/personal/lakshya_v_tamu_edu/Documents/ORSHS/SOD-Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD3D053304FD965D24A3088B35299F609" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F698365-AE35-4CF1-8DE8-94D983FF31B2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3605013879B3B1159ECC0F04085FD1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07645E52-5338-4A1B-A0A6-A66CF3F99403}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,81 +20,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14 tues</t>
+    <t>Assigned Butt</t>
+  </si>
+  <si>
+    <t>2025-01-21 tues</t>
+  </si>
+  <si>
+    <t>Dumalig</t>
+  </si>
+  <si>
+    <t>2025-01-22 wed</t>
+  </si>
+  <si>
+    <t>Kielty</t>
+  </si>
+  <si>
+    <t>2025-01-23 thurs</t>
+  </si>
+  <si>
+    <t>Stokes</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Noone available</t>
+  </si>
+  <si>
+    <t>2025-01-26 sun</t>
   </si>
   <si>
     <t>Parker</t>
   </si>
   <si>
-    <t>2025-01-15 wed</t>
-  </si>
-  <si>
-    <t>Kielty</t>
-  </si>
-  <si>
-    <t>2025-01-16 thurs</t>
+    <t>2025-01-27 mon</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>2025-01-28 tues</t>
+  </si>
+  <si>
+    <t>2025-01-29 wed</t>
+  </si>
+  <si>
+    <t>2025-01-30 thurs</t>
+  </si>
+  <si>
+    <t>2025-02-02 sun</t>
+  </si>
+  <si>
+    <t>2025-02-03 mon</t>
+  </si>
+  <si>
+    <t>2025-02-04 tues</t>
+  </si>
+  <si>
+    <t>Vason</t>
+  </si>
+  <si>
+    <t>2025-02-05 wed</t>
+  </si>
+  <si>
+    <t>Kilkenny</t>
+  </si>
+  <si>
+    <t>2025-02-06 thurs</t>
+  </si>
+  <si>
+    <t>2025-02-09 sun</t>
+  </si>
+  <si>
+    <t>2025-02-10 mon</t>
+  </si>
+  <si>
+    <t>Scott-Wellman</t>
+  </si>
+  <si>
+    <t>2025-02-11 tues</t>
+  </si>
+  <si>
+    <t>2025-02-12 wed</t>
+  </si>
+  <si>
+    <t>2025-02-13 thurs</t>
+  </si>
+  <si>
+    <t>2025-02-16 sun</t>
+  </si>
+  <si>
+    <t>2025-02-17 mon</t>
+  </si>
+  <si>
+    <t>2025-02-18 tues</t>
+  </si>
+  <si>
+    <t>2025-02-19 wed</t>
+  </si>
+  <si>
+    <t>2025-02-20 thurs</t>
+  </si>
+  <si>
+    <t>2025-02-23 sun</t>
+  </si>
+  <si>
+    <t>2025-02-24 mon</t>
+  </si>
+  <si>
+    <t>2025-02-25 tues</t>
+  </si>
+  <si>
+    <t>2025-02-26 wed</t>
+  </si>
+  <si>
+    <t>2025-02-27 thurs</t>
   </si>
   <si>
     <t>Gubser</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Noone available</t>
-  </si>
-  <si>
-    <t>2025-01-19 sun</t>
-  </si>
-  <si>
-    <t>Stokes</t>
-  </si>
-  <si>
-    <t>2025-01-20 mon</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>2025-01-21 tues</t>
-  </si>
-  <si>
-    <t>Scott-Wellman</t>
-  </si>
-  <si>
-    <t>2025-01-22 wed</t>
-  </si>
-  <si>
-    <t>2025-01-23 thurs</t>
-  </si>
-  <si>
-    <t>Dumalig</t>
-  </si>
-  <si>
-    <t>2025-01-26 sun</t>
-  </si>
-  <si>
-    <t>Vason</t>
-  </si>
-  <si>
-    <t>2025-01-27 mon</t>
-  </si>
-  <si>
-    <t>2025-01-28 tues</t>
-  </si>
-  <si>
-    <t>2025-01-29 wed</t>
-  </si>
-  <si>
-    <t>2025-01-30 thurs</t>
-  </si>
-  <si>
-    <t>Assigned Butt</t>
   </si>
 </sst>
 </file>
@@ -457,16 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,63 +521,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -538,7 +585,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -546,47 +593,47 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -594,7 +641,151 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/EST_Assignments_colored.xlsx
+++ b/EST_Assignments_colored.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tamucs-my.sharepoint.com/personal/lakshya_v_tamu_edu/Documents/ORSHS/SOD-Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3605013879B3B1159ECC0F04085FD1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07645E52-5338-4A1B-A0A6-A66CF3F99403}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_64E5F1A3D3A0595B5BDA3311595ED87656CD886B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC025937-D783-4730-89BA-0982E1E77ADA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -28,63 +28,87 @@
     <t>Assigned Butt</t>
   </si>
   <si>
+    <t>2025-01-12 sun</t>
+  </si>
+  <si>
+    <t>Noone available</t>
+  </si>
+  <si>
+    <t>2025-01-13 mon</t>
+  </si>
+  <si>
+    <t>2025-01-14 tues</t>
+  </si>
+  <si>
+    <t>2025-01-15 wed</t>
+  </si>
+  <si>
+    <t>2025-01-16 thurs</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>2025-01-19 sun</t>
+  </si>
+  <si>
+    <t>2025-01-20 mon</t>
+  </si>
+  <si>
     <t>2025-01-21 tues</t>
   </si>
   <si>
+    <t>Scott-Wellman</t>
+  </si>
+  <si>
+    <t>2025-01-22 wed</t>
+  </si>
+  <si>
+    <t>Kielty</t>
+  </si>
+  <si>
+    <t>2025-01-23 thurs</t>
+  </si>
+  <si>
     <t>Dumalig</t>
   </si>
   <si>
-    <t>2025-01-22 wed</t>
-  </si>
-  <si>
-    <t>Kielty</t>
-  </si>
-  <si>
-    <t>2025-01-23 thurs</t>
+    <t>2025-01-26 sun</t>
+  </si>
+  <si>
+    <t>Vason</t>
+  </si>
+  <si>
+    <t>2025-01-27 mon</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>2025-01-28 tues</t>
   </si>
   <si>
     <t>Stokes</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Noone available</t>
-  </si>
-  <si>
-    <t>2025-01-26 sun</t>
+    <t>2025-01-29 wed</t>
+  </si>
+  <si>
+    <t>2025-01-30 thurs</t>
+  </si>
+  <si>
+    <t>2025-02-02 sun</t>
   </si>
   <si>
     <t>Parker</t>
   </si>
   <si>
-    <t>2025-01-27 mon</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>2025-01-28 tues</t>
-  </si>
-  <si>
-    <t>2025-01-29 wed</t>
-  </si>
-  <si>
-    <t>2025-01-30 thurs</t>
-  </si>
-  <si>
-    <t>2025-02-02 sun</t>
-  </si>
-  <si>
     <t>2025-02-03 mon</t>
   </si>
   <si>
     <t>2025-02-04 tues</t>
   </si>
   <si>
-    <t>Vason</t>
-  </si>
-  <si>
     <t>2025-02-05 wed</t>
   </si>
   <si>
@@ -100,9 +124,6 @@
     <t>2025-02-10 mon</t>
   </si>
   <si>
-    <t>Scott-Wellman</t>
-  </si>
-  <si>
     <t>2025-02-11 tues</t>
   </si>
   <si>
@@ -127,6 +148,9 @@
     <t>2025-02-20 thurs</t>
   </si>
   <si>
+    <t>Steele</t>
+  </si>
+  <si>
     <t>2025-02-23 sun</t>
   </si>
   <si>
@@ -143,6 +167,132 @@
   </si>
   <si>
     <t>Gubser</t>
+  </si>
+  <si>
+    <t>2025-03-02 sun</t>
+  </si>
+  <si>
+    <t>2025-03-03 mon</t>
+  </si>
+  <si>
+    <t>2025-03-04 tues</t>
+  </si>
+  <si>
+    <t>2025-03-05 wed</t>
+  </si>
+  <si>
+    <t>Herberger</t>
+  </si>
+  <si>
+    <t>2025-03-06 thurs</t>
+  </si>
+  <si>
+    <t>2025-03-09 sun</t>
+  </si>
+  <si>
+    <t>2025-03-10 mon</t>
+  </si>
+  <si>
+    <t>2025-03-11 tues</t>
+  </si>
+  <si>
+    <t>2025-03-12 wed</t>
+  </si>
+  <si>
+    <t>2025-03-13 thurs</t>
+  </si>
+  <si>
+    <t>2025-03-16 sun</t>
+  </si>
+  <si>
+    <t>2025-03-17 mon</t>
+  </si>
+  <si>
+    <t>2025-03-18 tues</t>
+  </si>
+  <si>
+    <t>2025-03-19 wed</t>
+  </si>
+  <si>
+    <t>2025-03-20 thurs</t>
+  </si>
+  <si>
+    <t>2025-03-23 sun</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>2025-03-24 mon</t>
+  </si>
+  <si>
+    <t>2025-03-25 tues</t>
+  </si>
+  <si>
+    <t>2025-03-26 wed</t>
+  </si>
+  <si>
+    <t>2025-03-27 thurs</t>
+  </si>
+  <si>
+    <t>2025-03-30 sun</t>
+  </si>
+  <si>
+    <t>2025-03-31 mon</t>
+  </si>
+  <si>
+    <t>2025-04-01 tues</t>
+  </si>
+  <si>
+    <t>2025-04-02 wed</t>
+  </si>
+  <si>
+    <t>2025-04-03 thurs</t>
+  </si>
+  <si>
+    <t>2025-04-06 sun</t>
+  </si>
+  <si>
+    <t>2025-04-07 mon</t>
+  </si>
+  <si>
+    <t>2025-04-08 tues</t>
+  </si>
+  <si>
+    <t>2025-04-09 wed</t>
+  </si>
+  <si>
+    <t>2025-04-10 thurs</t>
+  </si>
+  <si>
+    <t>2025-04-13 sun</t>
+  </si>
+  <si>
+    <t>2025-04-14 mon</t>
+  </si>
+  <si>
+    <t>2025-04-15 tues</t>
+  </si>
+  <si>
+    <t>2025-04-16 wed</t>
+  </si>
+  <si>
+    <t>2025-04-17 thurs</t>
+  </si>
+  <si>
+    <t>2025-04-20 sun</t>
+  </si>
+  <si>
+    <t>2025-04-21 mon</t>
+  </si>
+  <si>
+    <t>2025-04-22 tues</t>
+  </si>
+  <si>
+    <t>2025-04-23 wed</t>
+  </si>
+  <si>
+    <t>2025-04-24 thurs</t>
   </si>
 </sst>
 </file>
@@ -505,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,119 +687,119 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -657,63 +807,63 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -721,7 +871,7 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -729,7 +879,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -737,31 +887,31 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -769,7 +919,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -777,7 +927,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -785,7 +935,455 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
